--- a/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P13NBC156 MINI BASICO N.1.xlsx
+++ b/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P13NBC156 MINI BASICO N.1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022\EQUIPOS BODEGA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{366C1789-4A9F-46D2-AC17-E18B197C5234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB27866A-4DC3-4404-ABE2-8151E7FC955B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$2:$G$59</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$2:$G$60</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
   <si>
     <t>FECHA DE EMISIÓN:</t>
   </si>
@@ -180,9 +180,6 @@
     <t>DESPERIO FINO ROMO</t>
   </si>
   <si>
-    <t>DESPERIO FINO CURVO</t>
-  </si>
-  <si>
     <t>GUBIA PEQUEÑA</t>
   </si>
   <si>
@@ -231,12 +228,6 @@
     <t>EQUIPO MINIBASICO # 1</t>
   </si>
   <si>
-    <t>OSTEOTOMO LARGE</t>
-  </si>
-  <si>
-    <t>OSTEOTOMO MEDIUM</t>
-  </si>
-  <si>
     <t xml:space="preserve">OSTEOTOMO CON IMPACTOR </t>
   </si>
   <si>
@@ -244,13 +235,25 @@
   </si>
   <si>
     <t>PINZA REDUCTORA CREMALLERA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESPERIO FINO CURVO MANGO MADERA Y MANGO NEGRO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PINZA DE SUJECCION TIPO ALLYX </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OSTEOTOMO MEDIUM PLANO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OSTEOTOMO LARGE PLANO </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="8">
+  <numFmts count="10">
     <numFmt numFmtId="42" formatCode="_ &quot;$&quot;* #,##0_ ;_ &quot;$&quot;* \-#,##0_ ;_ &quot;$&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
@@ -259,6 +262,8 @@
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="168" formatCode="_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="169" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="171" formatCode="_ &quot;$&quot;* #,##0_ ;_ &quot;$&quot;* \-#,##0_ ;_ &quot;$&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="173" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -650,7 +655,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="10">
+  <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -661,8 +666,12 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -826,14 +835,21 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="14">
     <cellStyle name="Moneda [0] 2" xfId="3" xr:uid="{393760EF-4D64-4900-84FC-89E79C4BBE0C}"/>
+    <cellStyle name="Moneda [0] 2 2" xfId="12" xr:uid="{89870E57-7CDF-46E0-813D-D1C9E5C2E7A0}"/>
     <cellStyle name="Moneda [0] 4" xfId="5" xr:uid="{08855838-5C14-4635-A833-10D9E480831F}"/>
     <cellStyle name="Moneda 2" xfId="6" xr:uid="{7B3855FB-AB19-4235-A04B-3AD3B2B276FC}"/>
+    <cellStyle name="Moneda 2 2" xfId="11" xr:uid="{33F3C65E-8B85-440B-AE31-947ABFE5D317}"/>
     <cellStyle name="Moneda 3" xfId="9" xr:uid="{44E9AD94-3C05-4EB9-8F1B-31D14F30F701}"/>
     <cellStyle name="Moneda 3 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Moneda 3 2 2" xfId="10" xr:uid="{2B8A0B37-A13A-429D-9393-38BF817173EB}"/>
     <cellStyle name="Moneda 3 2 3" xfId="4" xr:uid="{7A1CCEC3-8185-44C2-9D91-31D38AACD593}"/>
+    <cellStyle name="Moneda 3 3" xfId="13" xr:uid="{0B484510-2C4B-4258-8608-9A1FB905EB0D}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Normal 3" xfId="7" xr:uid="{8DBF3E06-A61C-4BBF-9097-CC6825FBF54C}"/>
@@ -1198,10 +1214,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N59"/>
+  <dimension ref="A1:N60"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A18" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A33" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -1681,7 +1697,7 @@
       <c r="B7" s="8"/>
       <c r="C7" s="9">
         <f ca="1">NOW()</f>
-        <v>45358.536803703704</v>
+        <v>45397.66084178241</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>1</v>
@@ -1786,13 +1802,13 @@
       <c r="B15" s="8"/>
       <c r="C15" s="9">
         <f ca="1">NOW()</f>
-        <v>45358.536803703704</v>
+        <v>45397.66084178241</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
@@ -1879,17 +1895,17 @@
     <row r="24" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="B24" s="46"/>
       <c r="C24" s="47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" s="39"/>
       <c r="G24" s="40"/>
     </row>
     <row r="25" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="B25" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="47" t="s">
         <v>32</v>
-      </c>
-      <c r="C25" s="47" t="s">
-        <v>33</v>
       </c>
       <c r="F25" s="39"/>
       <c r="G25" s="40"/>
@@ -1899,7 +1915,7 @@
         <v>2</v>
       </c>
       <c r="C26" s="49" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F26" s="39"/>
       <c r="G26" s="40"/>
@@ -1909,7 +1925,7 @@
         <v>2</v>
       </c>
       <c r="C27" s="49" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F27" s="39"/>
       <c r="G27" s="40"/>
@@ -1919,7 +1935,7 @@
         <v>1</v>
       </c>
       <c r="C28" s="49" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F28" s="39"/>
       <c r="G28" s="40"/>
@@ -1929,7 +1945,7 @@
         <v>2</v>
       </c>
       <c r="C29" s="49" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F29" s="39"/>
       <c r="G29" s="40"/>
@@ -1939,7 +1955,7 @@
         <v>2</v>
       </c>
       <c r="C30" s="49" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="F30" s="39"/>
       <c r="G30" s="40"/>
@@ -1959,7 +1975,7 @@
         <v>2</v>
       </c>
       <c r="C32" s="49" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F32" s="39"/>
       <c r="G32" s="40"/>
@@ -1969,7 +1985,7 @@
         <v>2</v>
       </c>
       <c r="C33" s="49" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F33" s="39"/>
       <c r="G33" s="40"/>
@@ -1979,7 +1995,7 @@
         <v>1</v>
       </c>
       <c r="C34" s="49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F34" s="39"/>
       <c r="G34" s="40"/>
@@ -1989,7 +2005,7 @@
         <v>2</v>
       </c>
       <c r="C35" s="49" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F35" s="39"/>
       <c r="G35" s="40"/>
@@ -1999,7 +2015,7 @@
         <v>1</v>
       </c>
       <c r="C36" s="49" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F36" s="39"/>
       <c r="G36" s="40"/>
@@ -2009,7 +2025,7 @@
         <v>1</v>
       </c>
       <c r="C37" s="49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F37" s="39"/>
       <c r="G37" s="40"/>
@@ -2019,7 +2035,7 @@
         <v>1</v>
       </c>
       <c r="C38" s="49" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F38" s="39"/>
       <c r="G38" s="40"/>
@@ -2029,7 +2045,7 @@
         <v>1</v>
       </c>
       <c r="C39" s="49" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F39" s="39"/>
       <c r="G39" s="40"/>
@@ -2039,7 +2055,7 @@
         <v>1</v>
       </c>
       <c r="C40" s="49" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F40" s="39"/>
       <c r="G40" s="40"/>
@@ -2049,29 +2065,33 @@
         <v>1</v>
       </c>
       <c r="C41" s="49" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F41" s="39"/>
       <c r="G41" s="40"/>
     </row>
     <row r="42" spans="2:7" ht="20.100000000000001" customHeight="1">
-      <c r="B42" s="47">
-        <f>SUM(B26:B41)</f>
-        <v>23</v>
-      </c>
-      <c r="C42" s="47"/>
+      <c r="B42" s="48">
+        <v>1</v>
+      </c>
+      <c r="C42" s="63" t="s">
+        <v>49</v>
+      </c>
       <c r="F42" s="39"/>
       <c r="G42" s="40"/>
     </row>
     <row r="43" spans="2:7" ht="20.100000000000001" customHeight="1">
-      <c r="B43" s="45"/>
-      <c r="C43" s="41"/>
+      <c r="B43" s="47">
+        <f>SUM(B26:B42)</f>
+        <v>24</v>
+      </c>
+      <c r="C43" s="47"/>
       <c r="F43" s="39"/>
       <c r="G43" s="40"/>
     </row>
     <row r="44" spans="2:7" ht="20.100000000000001" customHeight="1">
-      <c r="B44" s="42"/>
-      <c r="C44" s="20"/>
+      <c r="B44" s="45"/>
+      <c r="C44" s="41"/>
       <c r="F44" s="39"/>
       <c r="G44" s="40"/>
     </row>
@@ -2082,65 +2102,71 @@
       <c r="G45" s="40"/>
     </row>
     <row r="46" spans="2:7" ht="20.100000000000001" customHeight="1">
-      <c r="B46" s="23"/>
-      <c r="C46" s="23"/>
-    </row>
-    <row r="47" spans="2:7" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B47" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C47" s="24"/>
-    </row>
-    <row r="48" spans="2:7" ht="20.100000000000001" customHeight="1">
-      <c r="B48" s="6"/>
-      <c r="C48" s="23"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="20"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="40"/>
+    </row>
+    <row r="47" spans="2:7" ht="20.100000000000001" customHeight="1">
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
+    </row>
+    <row r="48" spans="2:7" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="B48" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C48" s="24"/>
     </row>
     <row r="49" spans="2:3" ht="20.100000000000001" customHeight="1">
       <c r="B49" s="6"/>
       <c r="C49" s="23"/>
     </row>
-    <row r="50" spans="2:3" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B50" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C50" s="24"/>
-    </row>
-    <row r="51" spans="2:3" ht="20.100000000000001" customHeight="1">
-      <c r="B51" s="6"/>
-      <c r="C51" s="23"/>
+    <row r="50" spans="2:3" ht="20.100000000000001" customHeight="1">
+      <c r="B50" s="6"/>
+      <c r="C50" s="23"/>
+    </row>
+    <row r="51" spans="2:3" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="B51" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C51" s="24"/>
     </row>
     <row r="52" spans="2:3" ht="20.100000000000001" customHeight="1">
       <c r="B52" s="6"/>
-    </row>
-    <row r="53" spans="2:3" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B53" s="6" t="s">
+      <c r="C52" s="23"/>
+    </row>
+    <row r="53" spans="2:3" ht="20.100000000000001" customHeight="1">
+      <c r="B53" s="6"/>
+    </row>
+    <row r="54" spans="2:3" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="B54" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C53" s="26"/>
-    </row>
-    <row r="54" spans="2:3" ht="20.100000000000001" customHeight="1">
-      <c r="B54" s="6"/>
+      <c r="C54" s="26"/>
     </row>
     <row r="55" spans="2:3" ht="20.100000000000001" customHeight="1">
       <c r="B55" s="6"/>
     </row>
-    <row r="56" spans="2:3" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B56" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C56" s="26"/>
-    </row>
-    <row r="57" spans="2:3" ht="20.100000000000001" customHeight="1">
-      <c r="B57" s="6"/>
+    <row r="56" spans="2:3" ht="20.100000000000001" customHeight="1">
+      <c r="B56" s="6"/>
+    </row>
+    <row r="57" spans="2:3" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="B57" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C57" s="26"/>
     </row>
     <row r="58" spans="2:3" ht="20.100000000000001" customHeight="1">
       <c r="B58" s="6"/>
     </row>
-    <row r="59" spans="2:3" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B59" s="6" t="s">
+    <row r="59" spans="2:3" ht="20.100000000000001" customHeight="1">
+      <c r="B59" s="6"/>
+    </row>
+    <row r="60" spans="2:3" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="B60" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C59" s="26"/>
+      <c r="C60" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="7">
